--- a/ExportedEstimate.xlsx
+++ b/ExportedEstimate.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="29">
   <si>
     <t>Microsoft Azure Estimate</t>
   </si>
@@ -41,7 +41,7 @@
     <t>Estimated upfront cost</t>
   </si>
   <si>
-    <t>Compute</t>
+    <t>Środowisko obliczeniowe</t>
   </si>
   <si>
     <t>Virtual Machines</t>
@@ -53,16 +53,25 @@
     <t>France South</t>
   </si>
   <si>
-    <t xml:space="preserve">1 A1 (1 Core, 1.75 GB RAM) x 1 Month (Pay as you go), Linux,  (Pay as you go); 1 managed disk – S4; Inter Region transfer type, 5 GB outbound data transfer from France South to East Asia</t>
+    <t xml:space="preserve">1 A1 (1 Core, 1.75 GB RAM) x 1 Miesiąc (Pay as you go), Linux,  (Pay as you go); 1 managed disk – S4; Inter Region transfer type, 5 GB outbound data transfer from Francja Południowa to Azja Wschodnia</t>
   </si>
   <si>
-    <t>Storage</t>
+    <t>Magazyn</t>
   </si>
   <si>
     <t>Storage Accounts</t>
   </si>
   <si>
-    <t>Block Blob Storage, Blob Storage, Flat Namespace, LRS Redundancy, Hot Access Tier, 200 GB Capacity - Pay as you go, 10 x 10,000 Write operations, 10 x 10,000 List and Create Container Operations, 10 x 10,000 Read operations, 1 x 10,000 Other operations. 1,000 GB Data Retrieval, 1,000 GB Data Write, SFTP disabled</t>
+    <t>Magazyn blokowych obiektów blob, Blob Storage, Płaska przestrzeń nazw, LRS Nadmiarowość, Warstwa dostępu Gorąca, Pojemność: 200 GB - Płatność zgodnie z rzeczywistym użyciem, 10 x 10 000 operacji zapisu, 10 x 10 000 operacji listowania i tworzenia kontenera, 10 x 10 000 operacji odczytu, 1 x 10 000 innych operacji. 1000GB Pobieranie danych, 1000GB Zapis danych, Protokół SFTP wyłączony</t>
+  </si>
+  <si>
+    <t>Internet rzeczy</t>
+  </si>
+  <si>
+    <t>Azure IoT Hub</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Warstwa Standardowa, S1: urządzenia: Bez ograniczeń, komun./dzień: 400 000, $40.63/miesiąc, 1 Jednostki usługi IoT Hub; </t>
   </si>
   <si>
     <t>Support</t>
@@ -89,7 +98,7 @@
     <t>All prices shown are in United States – Dollar ($) USD. This is a summary estimate, not a quote. For up to date pricing information please visit https://azure.microsoft.com/pricing/calculator/</t>
   </si>
   <si>
-    <t>This estimate was created at 6/27/2025 6:49:57 PM UTC.</t>
+    <t>This estimate was created at 6/28/2025 7:29:19 AM UTC.</t>
   </si>
 </sst>
 </file>
@@ -433,14 +442,20 @@
       <c r="A6" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="B6" s="3"/>
-      <c r="C6" s="3"/>
-      <c r="D6" s="13" t="s">
-        <v>17</v>
+      <c r="B6" s="3" t="s">
+        <v>18</v>
       </c>
-      <c r="E6" s="12"/>
+      <c r="C6" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>19</v>
+      </c>
       <c r="F6" s="5">
-        <v>0</v>
+        <v>40.625</v>
       </c>
       <c r="G6" s="5">
         <v>0</v>
@@ -466,17 +481,21 @@
       <c r="Z6" s="1"/>
     </row>
     <row r="7">
-      <c r="A7" s="3"/>
+      <c r="A7" s="3" t="s">
+        <v>20</v>
+      </c>
       <c r="B7" s="3"/>
       <c r="C7" s="3"/>
       <c r="D7" s="13" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
-      <c r="E7" s="13" t="s">
-        <v>19</v>
+      <c r="E7" s="12"/>
+      <c r="F7" s="5">
+        <v>0</v>
       </c>
-      <c r="F7" s="5"/>
-      <c r="G7" s="5"/>
+      <c r="G7" s="5">
+        <v>0</v>
+      </c>
       <c r="H7" s="7"/>
       <c r="I7" s="1"/>
       <c r="J7" s="1"/>
@@ -502,10 +521,10 @@
       <c r="B8" s="3"/>
       <c r="C8" s="3"/>
       <c r="D8" s="13" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E8" s="13" t="s">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="F8" s="5"/>
       <c r="G8" s="5"/>
@@ -534,7 +553,7 @@
       <c r="B9" s="3"/>
       <c r="C9" s="3"/>
       <c r="D9" s="13" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E9" s="13" t="s">
         <v>11</v>
@@ -565,16 +584,14 @@
       <c r="A10" s="3"/>
       <c r="B10" s="3"/>
       <c r="C10" s="3"/>
-      <c r="D10" s="14" t="s">
-        <v>22</v>
+      <c r="D10" s="13" t="s">
+        <v>24</v>
       </c>
-      <c r="E10" s="12"/>
-      <c r="F10" s="15">
-        <v>71.42421</v>
+      <c r="E10" s="13" t="s">
+        <v>11</v>
       </c>
-      <c r="G10" s="15">
-        <v>0</v>
-      </c>
+      <c r="F10" s="5"/>
+      <c r="G10" s="5"/>
       <c r="H10" s="7"/>
       <c r="I10" s="1"/>
       <c r="J10" s="1"/>
@@ -599,10 +616,16 @@
       <c r="A11" s="3"/>
       <c r="B11" s="3"/>
       <c r="C11" s="3"/>
-      <c r="D11" s="3"/>
-      <c r="E11" s="3"/>
-      <c r="F11" s="5"/>
-      <c r="G11" s="5"/>
+      <c r="D11" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="E11" s="12"/>
+      <c r="F11" s="15">
+        <v>112.04921</v>
+      </c>
+      <c r="G11" s="15">
+        <v>0</v>
+      </c>
       <c r="H11" s="7"/>
       <c r="I11" s="1"/>
       <c r="J11" s="1"/>
@@ -624,9 +647,7 @@
       <c r="Z11" s="1"/>
     </row>
     <row r="12">
-      <c r="A12" s="13" t="s">
-        <v>23</v>
-      </c>
+      <c r="A12" s="3"/>
       <c r="B12" s="3"/>
       <c r="C12" s="3"/>
       <c r="D12" s="3"/>
@@ -654,15 +675,15 @@
       <c r="Z12" s="1"/>
     </row>
     <row r="13">
-      <c r="A13" s="16" t="s">
-        <v>24</v>
+      <c r="A13" s="13" t="s">
+        <v>26</v>
       </c>
-      <c r="B13" s="16"/>
-      <c r="C13" s="16"/>
-      <c r="D13" s="16"/>
-      <c r="E13" s="16"/>
-      <c r="F13" s="17"/>
-      <c r="G13" s="17"/>
+      <c r="B13" s="3"/>
+      <c r="C13" s="3"/>
+      <c r="D13" s="3"/>
+      <c r="E13" s="3"/>
+      <c r="F13" s="5"/>
+      <c r="G13" s="5"/>
       <c r="H13" s="7"/>
       <c r="I13" s="1"/>
       <c r="J13" s="1"/>
@@ -685,7 +706,7 @@
     </row>
     <row r="14">
       <c r="A14" s="16" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B14" s="16"/>
       <c r="C14" s="16"/>
@@ -714,7 +735,9 @@
       <c r="Z14" s="1"/>
     </row>
     <row r="15">
-      <c r="A15" s="16"/>
+      <c r="A15" s="16" t="s">
+        <v>28</v>
+      </c>
       <c r="B15" s="16"/>
       <c r="C15" s="16"/>
       <c r="D15" s="16"/>
@@ -742,13 +765,13 @@
       <c r="Z15" s="1"/>
     </row>
     <row r="16">
-      <c r="A16" s="3"/>
-      <c r="B16" s="3"/>
-      <c r="C16" s="3"/>
-      <c r="D16" s="3"/>
-      <c r="E16" s="3"/>
-      <c r="F16" s="5"/>
-      <c r="G16" s="5"/>
+      <c r="A16" s="16"/>
+      <c r="B16" s="16"/>
+      <c r="C16" s="16"/>
+      <c r="D16" s="16"/>
+      <c r="E16" s="16"/>
+      <c r="F16" s="17"/>
+      <c r="G16" s="17"/>
       <c r="H16" s="7"/>
       <c r="I16" s="1"/>
       <c r="J16" s="1"/>
@@ -28325,8 +28348,8 @@
   <mergeCells>
     <mergeCell ref="A1:C1"/>
     <mergeCell ref="A2:C2"/>
-    <mergeCell ref="A13:G13"/>
     <mergeCell ref="A14:G14"/>
+    <mergeCell ref="A15:G15"/>
   </mergeCells>
   <headerFooter/>
 </worksheet>
